--- a/스케쥴.xlsx
+++ b/스케쥴.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ncodedesign/Desktop/작업/2. 도구/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ncodedesign/Desktop/작업/1. HTML/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D54849F-BF79-7D49-9201-6FA00DA9B3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D20C1C8-A20F-5340-BE22-68167A3D7A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="3460" windowWidth="28300" windowHeight="17440" xr2:uid="{156263A5-91C8-3247-9067-C27E80A3559D}"/>
+    <workbookView xWindow="3680" yWindow="3460" windowWidth="28300" windowHeight="17440" activeTab="1" xr2:uid="{156263A5-91C8-3247-9067-C27E80A3559D}"/>
   </bookViews>
   <sheets>
     <sheet name="schedule" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>해야할 일</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,36 +302,6 @@
   </si>
   <si>
     <t>&lt;script src="https://dcode-prod-bucket.s3.ap-northeast-2.amazonaws.com/content/itsdcode_scripts_3.min.js"&gt;&lt;/script&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">상품 썸네일 = 아트보드파일 (신규만들때 가로세로옆 아트보트 체크하면됨)에서 누끼따고 폴더이름 바꿔서 파일 저장 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>*세일즈팀에서 #병행브랜드-썸네일로 요청</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-THUM 폴더 만들고 이미지 저장하고, psd파일도 옆에 저장해주기 
-작업순서 : 원본받기 &gt; psd에 넣고 누끼따고 커맨드j 하고 원본 지우고 &gt; 폴더이름바꿔주고 파일 다같이 저장하기
-작업 중 파일이 포토샵에 업로드 안되면 : 파일 우측마우스 클릭 &gt; 빠른동작 &gt; 이미지변환 &gt; jpeg , 실제크기 설정</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -376,22 +346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> 2주 후에 자리 옮기면 슬랙, 구름다리, 제플린은 추가로 깔기 / 포토샵 jpg파일저장 단축키 커맨드 1 저장하기여튼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃 - 깃허브, 엑셀, 크롬, 포토샵(help &gt; signout), 노션, 제플린, 슬랙 
-메모장 복사하기, 작업파일 나스에 올려서 옮기기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자리 옮기면 &gt; 슬랙, 포토샵, 일러스트, 엑셀, 크롬, 노션, 제플린, 구름다리 깔고 
-메모장 복사해서 놓고, 작업파일 나스에 올려서 옮기고, 포토샵 빠른저장 단축키 컨트롤1로 변경하고 
-깃허브깔고 파일관리 및 비쥬얼스튜디오코드 플러그인들 설치 
-디자인컬러측정기 깔기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://gw.itsdcode.com/gw/userMain.do</t>
   </si>
   <si>
@@ -460,11 +414,6 @@
   </si>
   <si>
     <t>https://admin.letsdcode.com/exposure</t>
-  </si>
-  <si>
-    <t>셀렉트 1단 미리 텍스트 넣어놓기 &gt; 셀렉트 뉴인 2번째시안 템플릿화하기 &gt; 인터뷰 템플릿화하기 
-*디자인 작업들 들어오면 내가 다하기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -525,12 +474,87 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>swiper 위아래 반 나뉘어서 반대로 흐르는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">상품 썸네일 = 아트보드파일 (신규만들때 가로세로옆 아트보트 체크하면됨)에서 누끼따고 폴더이름 바꿔서 파일 저장 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>*세일즈팀에서 #병행브랜드-썸네일로 요청</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+THUM 폴더 만들고 이미지 저장하고, psd파일도 옆에 저장해주기 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> **파일이름 저장할 때 꼭 1 말고 01 이런식으로 넣기 오류남</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+작업순서 : 원본받기 &gt; psd에 넣고 누끼따고 커맨드j 하고 원본 지우고 &gt; 폴더이름바꿔주고 파일 다같이 저장하기
+작업 중 파일이 포토샵에 업로드 안되면 : 파일 우측마우스 클릭 &gt; 빠른동작 &gt; 이미지변환 &gt; jpeg , 실제크기 설정</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리오더는 작업 완료후에 상품등록이 되어야 슬랙 프로모션에 올리고, 셀렉은 작업 완료후에 상품등록 관계없이 승인되면 슬랙 프로모션에 올리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품박스 하단엔 50px margin, 아래의 컨텐츠 상단엔 60px margin이 들어갑니다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/17 회식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>백틱 : 옵션 ₩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -593,6 +617,13 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -649,7 +680,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,6 +760,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1048,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F29FC6-2D04-F749-82C6-C470CB16A9BD}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1085,8 +1119,11 @@
       <c r="P1" s="24"/>
     </row>
     <row r="2" spans="1:16" s="17" customFormat="1" ht="130" customHeight="1">
+      <c r="A2" s="17" t="s">
+        <v>85</v>
+      </c>
       <c r="B2" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2" s="23" t="s">
         <v>12</v>
@@ -1094,7 +1131,11 @@
     </row>
     <row r="3" spans="1:16" ht="30" customHeight="1"/>
     <row r="4" spans="1:16" ht="30" customHeight="1"/>
-    <row r="5" spans="1:16" ht="30" customHeight="1"/>
+    <row r="5" spans="1:16" ht="30" customHeight="1">
+      <c r="B5" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
     <row r="6" spans="1:16" ht="30" customHeight="1">
       <c r="B6" s="7"/>
     </row>
@@ -1109,19 +1150,11 @@
       <c r="B12" s="5"/>
     </row>
     <row r="13" spans="1:16" ht="120" customHeight="1">
-      <c r="B13" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="30" customHeight="1">
-      <c r="B14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="1:16" ht="30" customHeight="1"/>
     <row r="15" spans="1:16" ht="120" customHeight="1">
-      <c r="B15" s="6" t="s">
-        <v>65</v>
-      </c>
+      <c r="B15" s="6"/>
     </row>
     <row r="16" spans="1:16" ht="30" customHeight="1"/>
     <row r="17" ht="30" customHeight="1"/>
@@ -1162,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{532244EF-4315-4B4F-A70A-A3C5F8769EBC}">
   <dimension ref="B1:B111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1197,7 +1230,11 @@
       </c>
     </row>
     <row r="6" spans="2:2" s="1" customFormat="1" ht="30" customHeight="1"/>
-    <row r="7" spans="2:2" s="1" customFormat="1" ht="30" customHeight="1"/>
+    <row r="7" spans="2:2" s="1" customFormat="1" ht="30" customHeight="1">
+      <c r="B7" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="8" spans="2:2" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="9" spans="2:2" s="1" customFormat="1" ht="30" customHeight="1"/>
     <row r="10" spans="2:2" s="1" customFormat="1" ht="30" customHeight="1"/>
@@ -1312,8 +1349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BE985B7-C11A-3240-9C34-527D30056DED}">
   <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1405,7 +1442,7 @@
     <row r="12" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="8"/>
       <c r="B12" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" s="19"/>
     </row>
@@ -1461,7 +1498,7 @@
     <row r="21" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" s="16"/>
     </row>
@@ -1482,7 +1519,7 @@
     <row r="24" spans="1:3" s="1" customFormat="1" ht="90" customHeight="1">
       <c r="A24" s="8"/>
       <c r="B24" s="21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1">
@@ -1501,7 +1538,9 @@
     </row>
     <row r="27" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
+      <c r="B27" s="27" t="s">
+        <v>88</v>
+      </c>
       <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:3" s="1" customFormat="1" ht="120" customHeight="1">
@@ -1509,25 +1548,25 @@
         <v>53</v>
       </c>
       <c r="B28" s="21" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:3" s="1" customFormat="1" ht="120" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:3" s="1" customFormat="1" ht="120" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="21" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" ht="30" customHeight="1">
@@ -1619,7 +1658,9 @@
     </row>
     <row r="47" spans="1:2" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A47" s="8"/>
-      <c r="B47" s="10"/>
+      <c r="B47" s="10" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="48" spans="1:2" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A48" s="8"/>
@@ -1986,7 +2027,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="30" customHeight="1"/>
@@ -2009,82 +2050,82 @@
     </row>
     <row r="2" spans="1:3" ht="30" customHeight="1">
       <c r="A2" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1">
       <c r="A8" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="30" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30" customHeight="1">
